--- a/new-stats/western-sydney-wanderers-fc.xlsx
+++ b/new-stats/western-sydney-wanderers-fc.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>14</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/western-sydney-wanderers-fc.xlsx
+++ b/new-stats/western-sydney-wanderers-fc.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>

--- a/new-stats/western-sydney-wanderers-fc.xlsx
+++ b/new-stats/western-sydney-wanderers-fc.xlsx
@@ -1154,22 +1154,62 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Melbourne Victory</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/western-sydney-wanderers-fc.xlsx
+++ b/new-stats/western-sydney-wanderers-fc.xlsx
@@ -1212,40 +1212,120 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>16</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Perth Glory</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>23</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/western-sydney-wanderers-fc.xlsx
+++ b/new-stats/western-sydney-wanderers-fc.xlsx
@@ -1328,22 +1328,62 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/western-sydney-wanderers-fc.xlsx
+++ b/new-stats/western-sydney-wanderers-fc.xlsx
@@ -1386,22 +1386,62 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Melbourne City</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/new-stats/western-sydney-wanderers-fc.xlsx
+++ b/new-stats/western-sydney-wanderers-fc.xlsx
@@ -1444,22 +1444,62 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/02/2026</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WS Wanderers</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
